--- a/data/long_dif/P19_1-Urba-long_dif.xlsx
+++ b/data/long_dif/P19_1-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,2; 33,23</t>
+          <t>23,56; 35,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,63; 32,96</t>
+          <t>22,34; 33,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,07; 39,16</t>
+          <t>29,2; 38,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,51; 32,18</t>
+          <t>26,53; 37,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 24,2</t>
+          <t>20,53; 30,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,92; 36,4</t>
+          <t>22,56; 30,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,31; 31,05</t>
+          <t>16,29; 23,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,58; 27,23</t>
+          <t>28,78; 36,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,32; 36,5</t>
+          <t>22,11; 30,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 32,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 30,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20,38; 26,41</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>30,03; 36,34</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25,0; 32,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>23,64; 30,55</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>46,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>47,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>45,47%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44,99%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,9; 50,7</t>
+          <t>39,29; 50,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,15; 45,7</t>
+          <t>35,07; 47,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,84; 44,96</t>
+          <t>35,17; 45,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,26; 49,38</t>
+          <t>37,6; 48,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,55; 45,43</t>
+          <t>39,62; 52,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,79; 51,49</t>
+          <t>40,89; 49,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,35; 48,5</t>
+          <t>37,05; 46,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,71; 43,96</t>
+          <t>42,61; 51,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,63; 47,06</t>
+          <t>42,41; 52,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38,54; 49,21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42,07; 48,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37,58; 45,06</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40,04; 46,71</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>41,8; 49,61</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>40,76; 49,19</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>26,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,33%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,79; 32,13</t>
+          <t>22,47; 31,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,38; 38,77</t>
+          <t>27,7; 37,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,16; 32,98</t>
+          <t>21,11; 32,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,9; 32,11</t>
+          <t>20,94; 30,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,46; 44,28</t>
+          <t>22,56; 35,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,48</t>
+          <t>24,51; 32,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 30,4</t>
+          <t>34,53; 43,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,64; 40,19</t>
+          <t>17,5; 24,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 26,84</t>
+          <t>21,63; 31,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 32,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,89; 30,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32,25; 38,86</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,49; 27,38</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 29,9</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>24,59; 32,59</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 30,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,47; 34,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 36,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,47; 34,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 28,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,52; 38,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,96; 31,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 29,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,71; 35,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49,4%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>31,94%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>37,33%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,0; 56,84</t>
+          <t>20,5; 30,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,44; 52,27</t>
+          <t>22,44; 33,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,85; 50,09</t>
+          <t>25,38; 35,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,81; 45,11</t>
+          <t>20,52; 35,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,77; 48,32</t>
+          <t>27,4; 57,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,26; 49,63</t>
+          <t>24,43; 33,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,3; 49,14</t>
+          <t>19,13; 29,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,97; 47,93</t>
+          <t>29,3; 38,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41,08; 48,29</t>
+          <t>22,21; 32,7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 47,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 30,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 29,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>28,58; 35,44</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>22,71; 31,42</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>29,72; 48,15</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>44,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>44,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>48,52%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>33,21%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43,98%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43,08%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>44,66%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>50,56%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>38,17%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,86; 30,85</t>
+          <t>42,24; 53,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,57; 33,62</t>
+          <t>37,83; 50,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,69; 30,89</t>
+          <t>39,45; 50,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,03; 36,2</t>
+          <t>45,32; 59,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,65; 39,71</t>
+          <t>27,59; 51,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 25,52</t>
+          <t>34,99; 45,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,82; 31,87</t>
+          <t>36,7; 47,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 35,08</t>
+          <t>39,42; 48,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,06</t>
+          <t>42,96; 54,47</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24,77; 44,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39,86; 48,08</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 47,36</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>41,27; 48,5</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>46,1; 54,99</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 45,48</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29,08%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>24,5%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,53; 28,36</t>
+          <t>22,24; 31,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,53; 41,01</t>
+          <t>23,01; 33,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,56; 36,25</t>
+          <t>20,17; 30,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,17; 32,13</t>
+          <t>15,4; 25,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,2; 36,77</t>
+          <t>12,29; 28,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,03; 40,34</t>
+          <t>26,49; 37,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 27,75</t>
+          <t>29,18; 39,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,06; 35,32</t>
+          <t>18,16; 26,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,31; 34,75</t>
+          <t>20,01; 30,13</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20,67; 41,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,71; 32,78</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27,17; 34,99</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 26,96</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 27,12</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 30,79</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,70 +1929,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,26; 59,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,9; 45,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,83; 53,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,77; 64,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,42; 47,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,11; 51,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,02; 59,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,49; 42,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35,95; 49,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1508,27 +2036,57 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>21,39%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>29,92%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>23,8; 44,92</t>
+          <t>11,87; 29,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>26,98; 51,92</t>
+          <t>15,75; 37,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,33; 43,13</t>
+          <t>18,12; 36,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,8; 32,88</t>
+          <t>8,62; 50,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,68; 47,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,09; 35,36</t>
+          <t>15,73; 31,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,42; 35,94</t>
+          <t>19,16; 37,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,07; 45,45</t>
+          <t>22,43; 39,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,47; 36,09</t>
+          <t>26,7; 47,91</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15,67; 28,07</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 33,79</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 35,54</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>21,6; 44,99</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>44,99%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>48,11%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>34,89%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>42,54%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>45,18%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,52; 29,35</t>
+          <t>34,64; 56,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,13; 31,51</t>
+          <t>22,56; 43,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>28,46; 35,21</t>
+          <t>32,89; 53,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,76; 30,9</t>
+          <t>27,47; 61,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,39; 25,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,3; 35,89</t>
+          <t>42,58; 61,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,45; 29,01</t>
+          <t>27,85; 47,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,62; 27,26</t>
+          <t>34,3; 52,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,24; 34,54</t>
+          <t>34,13; 55,91</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40,07; 55,14</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>27,64; 42,6</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>35,9; 50,06</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>35,46; 54,94</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>38,23%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43,13; 51,18</t>
+          <t>26,01; 46,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>36,87; 45,53</t>
+          <t>28,49; 56,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,27; 45,4</t>
+          <t>20,95; 43,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>40,64; 47,06</t>
+          <t>17,86; 48,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,69; 44,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,46; 48,93</t>
+          <t>17,07; 33,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>42,51; 47,88</t>
+          <t>26,31; 45,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>37,97; 43,77</t>
+          <t>19,51; 35,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>41,25; 46,16</t>
+          <t>11,25; 27,81</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>24,28; 37,23</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>30,55; 47,41</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>22,63; 35,93</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 34,53</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>27,95; 35,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,86; 30,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>33,53; 40,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,18; 24,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>31,83; 37,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>32,83%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>27,5%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>30,27%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>27,95%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,69; 29,88</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 31,13</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 34,86</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 33,03</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 34,67</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 29,83</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 25,49</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>29,72; 35,6</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 30,77</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>25,72; 34,3</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>24,39; 29,12</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,51; 27,33</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>29,92; 34,38</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>25,37; 30,94</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>25,84; 33,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>45,94%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>41,11%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>42,26%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>47,22%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>45,24%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>44,09%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>41,18%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>45,26%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>41,64%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>41,15%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>43,77%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>47,46%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>43,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>42,32; 49,88</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>37,26; 45,57</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>38,79; 45,79</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>42,91; 51,71</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>39,2; 50,56</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>40,86; 47,27</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>37,93; 44,49</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>42,65; 48,37</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>43,86; 51,07</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>37,03; 46,36</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>42,16; 47,29</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>38,43; 43,8</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>41,56; 46,06</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>44,67; 50,22</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>39,19; 46,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,57%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>36,52%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>27,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>25,07; 31,13</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>28,02; 35,43</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>22,96; 30,31</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 28,04</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>22,13; 32,66</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 31,93</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>33,55; 39,99</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 24,46</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 28,27</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>23,34; 33,17</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>26,36; 30,66</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 36,62</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 26,54</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>22,07; 26,93</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 31,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P19_1-Urba-long_dif.xlsx
+++ b/data/long_dif/P19_1-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
